--- a/modules/report/template-based-excel-generator/src/test/resources/templates/empty_collection_template.xlsx
+++ b/modules/report/template-based-excel-generator/src/test/resources/templates/empty_collection_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyh/dev/mylib/kotlin/kotlin-common-library/modules/report/template-based-excel-generator/src/test/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868BF926-7EBC-164A-B391-783A2ADF3EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9EB841-0E65-4D4F-BB15-DE3FC8C64FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="70260" yWindow="-3400" windowWidth="20980" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,6 +326,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,9 +339,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +733,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -749,31 +749,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="e" cm="1">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="e" cm="1">
         <f t="array" aca="1" ref="C1" ca="1">TBEG_IMAGE(ci)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="10"/>
       <c r="E1" t="e" cm="1">
         <f t="array" aca="1" ref="E1" ca="1">TBEG_IMAGE(logo)</f>
         <v>#NAME?</v>
       </c>
-      <c r="F1" s="10" t="str">
+      <c r="F1" s="11" t="str">
         <f>HYPERLINK("${url}", "${linkText}")</f>
         <v>${linkText}</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="32" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -782,7 +782,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="e" cm="1">
-        <f t="array" aca="1" ref="A4" ca="1">TBEG_REPEAT(emptyCollection, A6:C6, emp, A13:C13)</f>
+        <f t="array" aca="1" ref="A4" ca="1">TBEG_REPEAT(emptyCollection, A6:C6, emp, , A13:C13)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -828,11 +828,11 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -851,10 +851,10 @@
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="F10" t="e" cm="1">
-        <f t="array" aca="1" ref="F10" ca="1">TBEG_REPEAT(emptyCollection, F12:H12, emp, H10)</f>
+        <f t="array" aca="1" ref="F10" ca="1">TBEG_REPEAT(emptyCollection, F12:H12, emp, , H10)</f>
         <v>#NAME?</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
